--- a/biology/Botanique/Frankenia_salina/Frankenia_salina.xlsx
+++ b/biology/Botanique/Frankenia_salina/Frankenia_salina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankenia salina est une espèce de plantes dicotylédones de la famille des Frankeniaceae. En anglais, elle porte les noms vernaculaires d’Alkali heath et d’Alkali seaheath. C'est une plante herbacée vivace originaire des États-Unis (Californie et Nevada), du Mexique et du Chili[1]. Cette espèce reste rare même dans la région où elle est le plus susceptible d'être rencontrée, juste au nord de la région de la baie de San Francisco.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenia salina est une espèce de plantes dicotylédones de la famille des Frankeniaceae. En anglais, elle porte les noms vernaculaires d’Alkali heath et d’Alkali seaheath. C'est une plante herbacée vivace originaire des États-Unis (Californie et Nevada), du Mexique et du Chili. Cette espèce reste rare même dans la région où elle est le plus susceptible d'être rencontrée, juste au nord de la région de la baie de San Francisco.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson trapu à fleurs qui forme un fourré de brindilles près des plages et des marais salants côtiers de Californie. Son nom commun fait référence à sa préférence pour les sols alcalins en tant qu'halophyte. Il a la capacité d’excréter du sel pour s’adapter à la vie dans des habitats salins. Les fleurs sont de couleur rose ou fuchsia.
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Frankenia salina (Molina) I.M.Johnst.[2].
-L'espèce a été initialement classée dans le genre Ocimum sous le basionyme Ocimum salinum Molina[2].
-Frankenia salina a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Frankenia salina (Molina) I.M.Johnst..
+L'espèce a été initialement classée dans le genre Ocimum sous le basionyme Ocimum salinum Molina.
+Frankenia salina a pour synonymes :
 Franca grandifolia (Cham. &amp; Schltdl.) Greene
 Frangula grandifolia Cham. &amp; Schltdl.
 Frankenia berteroana Gay
